--- a/Practise Exercise  - 4.xlsx
+++ b/Practise Exercise  - 4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS\9june\Assignments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS\2. June\9\practice_exercise_1_5_June\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BD2B8E-628B-4523-ACE2-033DCFD07A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBD7FC7-C2E7-48BA-9B19-C711C95B44BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="647" activeTab="3" xr2:uid="{B9B45259-4D10-4DDE-ACCE-5C9708E1BB13}"/>
   </bookViews>
@@ -4228,7 +4228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4245,6 +4245,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4257,8 +4258,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -43023,7 +43022,7 @@
       <c r="H1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="2" t="s">
         <v>1354</v>
       </c>
     </row>
@@ -85789,7 +85788,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -85800,22 +85799,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>1350</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>1351</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="2">
         <v>2018</v>
       </c>
@@ -86035,24 +86034,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>1352</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>1353</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="15"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="5" t="s">
         <v>55</v>
       </c>
@@ -86310,7 +86309,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="17"/>
+      <c r="B13" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
